--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H2">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.92724119125664</v>
+        <v>0.448064</v>
       </c>
       <c r="N2">
-        <v>2.92724119125664</v>
+        <v>1.344192</v>
       </c>
       <c r="O2">
-        <v>0.9020177136085962</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="P2">
-        <v>0.9020177136085962</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="Q2">
-        <v>25.68515387828288</v>
+        <v>8.397511985216001</v>
       </c>
       <c r="R2">
-        <v>25.68515387828288</v>
+        <v>75.57760786694401</v>
       </c>
       <c r="S2">
-        <v>0.1065693638856502</v>
+        <v>0.02515201645258976</v>
       </c>
       <c r="T2">
-        <v>0.1065693638856502</v>
+        <v>0.02515201645258976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H3">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.317973561285159</v>
+        <v>2.951476</v>
       </c>
       <c r="N3">
-        <v>0.317973561285159</v>
+        <v>8.854428</v>
       </c>
       <c r="O3">
-        <v>0.09798228639140376</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="P3">
-        <v>0.09798228639140376</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="Q3">
-        <v>2.790067274001706</v>
+        <v>55.315881401044</v>
       </c>
       <c r="R3">
-        <v>2.790067274001706</v>
+        <v>497.842932609396</v>
       </c>
       <c r="S3">
-        <v>0.01157616948676072</v>
+        <v>0.1656807351436933</v>
       </c>
       <c r="T3">
-        <v>0.01157616948676072</v>
+        <v>0.1656807351436933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.6959104009055</v>
+        <v>18.741769</v>
       </c>
       <c r="H4">
-        <v>53.6959104009055</v>
+        <v>56.225307</v>
       </c>
       <c r="I4">
-        <v>0.7229942665519247</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J4">
-        <v>0.7229942665519247</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92724119125664</v>
+        <v>0.5526053333333333</v>
       </c>
       <c r="N4">
-        <v>2.92724119125664</v>
+        <v>1.657816</v>
       </c>
       <c r="O4">
-        <v>0.9020177136085962</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="P4">
-        <v>0.9020177136085962</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="Q4">
-        <v>157.1808807275564</v>
+        <v>10.35680150550133</v>
       </c>
       <c r="R4">
-        <v>157.1808807275564</v>
+        <v>93.211213549512</v>
       </c>
       <c r="S4">
-        <v>0.652153635267291</v>
+        <v>0.03102043108973014</v>
       </c>
       <c r="T4">
-        <v>0.652153635267291</v>
+        <v>0.03102043108973014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H5">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.317973561285159</v>
+        <v>0.448064</v>
       </c>
       <c r="N5">
-        <v>0.317973561285159</v>
+        <v>1.344192</v>
       </c>
       <c r="O5">
-        <v>0.09798228639140376</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="P5">
-        <v>0.09798228639140376</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="Q5">
-        <v>17.07387985662473</v>
+        <v>24.09343212590933</v>
       </c>
       <c r="R5">
-        <v>17.07387985662473</v>
+        <v>216.840889133184</v>
       </c>
       <c r="S5">
-        <v>0.0708406312846336</v>
+        <v>0.07216404124187013</v>
       </c>
       <c r="T5">
-        <v>0.0708406312846336</v>
+        <v>0.07216404124187013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7983550688644</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H6">
-        <v>11.7983550688644</v>
+        <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.1588602000756645</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J6">
-        <v>0.1588602000756645</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.92724119125664</v>
+        <v>2.951476</v>
       </c>
       <c r="N6">
-        <v>2.92724119125664</v>
+        <v>8.854428</v>
       </c>
       <c r="O6">
-        <v>0.9020177136085962</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="P6">
-        <v>0.9020177136085962</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="Q6">
-        <v>34.53663094665144</v>
+        <v>158.7076548824507</v>
       </c>
       <c r="R6">
-        <v>34.53663094665144</v>
+        <v>1428.368893942056</v>
       </c>
       <c r="S6">
-        <v>0.143294714455655</v>
+        <v>0.4753571717174107</v>
       </c>
       <c r="T6">
-        <v>0.143294714455655</v>
+        <v>0.4753571717174107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.7983550688644</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H7">
-        <v>11.7983550688644</v>
+        <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.1588602000756645</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J7">
-        <v>0.1588602000756645</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.317973561285159</v>
+        <v>0.5526053333333333</v>
       </c>
       <c r="N7">
-        <v>0.317973561285159</v>
+        <v>1.657816</v>
       </c>
       <c r="O7">
-        <v>0.09798228639140376</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="P7">
-        <v>0.09798228639140376</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="Q7">
-        <v>3.751564978553621</v>
+        <v>29.71486013400355</v>
       </c>
       <c r="R7">
-        <v>3.751564978553621</v>
+        <v>267.433741206032</v>
       </c>
       <c r="S7">
-        <v>0.01556548562000946</v>
+        <v>0.08900120086671559</v>
       </c>
       <c r="T7">
-        <v>0.01556548562000946</v>
+        <v>0.08900120086671559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.964182</v>
+      </c>
+      <c r="H8">
+        <v>35.892546</v>
+      </c>
+      <c r="I8">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="J8">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.448064</v>
+      </c>
+      <c r="N8">
+        <v>1.344192</v>
+      </c>
+      <c r="O8">
+        <v>0.113372348992564</v>
+      </c>
+      <c r="P8">
+        <v>0.113372348992564</v>
+      </c>
+      <c r="Q8">
+        <v>5.360719243648</v>
+      </c>
+      <c r="R8">
+        <v>48.246473192832</v>
+      </c>
+      <c r="S8">
+        <v>0.01605629129810416</v>
+      </c>
+      <c r="T8">
+        <v>0.01605629129810415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.964182</v>
+      </c>
+      <c r="H9">
+        <v>35.892546</v>
+      </c>
+      <c r="I9">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="J9">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.951476</v>
+      </c>
+      <c r="N9">
+        <v>8.854428</v>
+      </c>
+      <c r="O9">
+        <v>0.7468035082380574</v>
+      </c>
+      <c r="P9">
+        <v>0.7468035082380574</v>
+      </c>
+      <c r="Q9">
+        <v>35.311996032632</v>
+      </c>
+      <c r="R9">
+        <v>317.807964293688</v>
+      </c>
+      <c r="S9">
+        <v>0.1057656013769534</v>
+      </c>
+      <c r="T9">
+        <v>0.1057656013769534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.964182</v>
+      </c>
+      <c r="H10">
+        <v>35.892546</v>
+      </c>
+      <c r="I10">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="J10">
+        <v>0.1416244034879904</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5526053333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.657816</v>
+      </c>
+      <c r="O10">
+        <v>0.1398241427693786</v>
+      </c>
+      <c r="P10">
+        <v>0.1398241427693786</v>
+      </c>
+      <c r="Q10">
+        <v>6.611470782170666</v>
+      </c>
+      <c r="R10">
+        <v>59.50323703953599</v>
+      </c>
+      <c r="S10">
+        <v>0.01980251081293285</v>
+      </c>
+      <c r="T10">
+        <v>0.01980251081293285</v>
       </c>
     </row>
   </sheetData>
